--- a/data/scheduling_DNN/predict/0.5/result28.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result28.xlsx
@@ -570,10 +570,10 @@
         <v>0.8995819091796875</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4994229972362518</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05911815166473389</v>
+        <v>0.1601271480321884</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9699740409851074</v>
       </c>
       <c r="V3" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4941331744194031</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3839998245239258</v>
+        <v>0.2264245301485062</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9601809978485107</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.8711628317832947</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1475183069705963</v>
+        <v>0.007924233563244343</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8822228908538818</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.3992755711078644</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2569621801376343</v>
+        <v>0.2332381159067154</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8778610229492188</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4046878814697266</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03813258558511734</v>
+        <v>0.2238928228616714</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8636248111724854</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.4225524961948395</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007063129916787148</v>
+        <v>0.194544792175293</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9154410362243652</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4123643636703491</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00899895466864109</v>
+        <v>0.2530861496925354</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8817811012268066</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8572136163711548</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1158753111958504</v>
+        <v>0.0006035612896084785</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8662869930267334</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5009416341781616</v>
       </c>
       <c r="W10" t="n">
-        <v>0.132100448012352</v>
+        <v>0.1334772258996964</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8588380813598633</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5403873324394226</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04159090667963028</v>
+        <v>0.1014108806848526</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9117059707641602</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.3972630798816681</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07281632721424103</v>
+        <v>0.2646515071392059</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8760831356048584</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4888921976089478</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2232391238212585</v>
+        <v>0.1499168276786804</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8658130168914795</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.397226095199585</v>
       </c>
       <c r="W14" t="n">
-        <v>0.003867869963869452</v>
+        <v>0.2195737063884735</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8962280750274658</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.3972326517105103</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008271883241832256</v>
+        <v>0.2489964365959167</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9385001659393311</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4994341135025024</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1322897672653198</v>
+        <v>0.192779004573822</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8796119689941406</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.8624745607376099</v>
       </c>
       <c r="W17" t="n">
-        <v>0.004141061566770077</v>
+        <v>0.0002936907694675028</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8684499263763428</v>
       </c>
       <c r="V18" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4112658202648163</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1252352297306061</v>
+        <v>0.2090173065662384</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8559160232543945</v>
       </c>
       <c r="V19" t="n">
-        <v>0.514431357383728</v>
+        <v>0.5461078286170959</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1166117787361145</v>
+        <v>0.09598112106323242</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9350600242614746</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4217477440834045</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2823916375637054</v>
+        <v>0.2634894847869873</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8802990913391113</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.422052264213562</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2803869247436523</v>
+        <v>0.2099901586771011</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5403990745544434</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8747995495796204</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01472742576152086</v>
+        <v>0.1118236780166626</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5328631401062012</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4977706670761108</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0008448928128927946</v>
+        <v>0.00123148167040199</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5440211296081543</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4950015544891357</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03747203946113586</v>
+        <v>0.002402918646112084</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5450491905212402</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8730657696723938</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0001118078580475412</v>
+        <v>0.1075948774814606</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5298938751220703</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4939338564872742</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0007356427959166467</v>
+        <v>0.001293122884817421</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5152440071105957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8729305863380432</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01800772175192833</v>
+        <v>0.1279396861791611</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5211730003356934</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8732349276542664</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001849511172622442</v>
+        <v>0.1239475980401039</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253818035125732</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8655151128768921</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02122735418379307</v>
+        <v>0.1156906709074974</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5464959144592285</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8629322052001953</v>
       </c>
       <c r="W30" t="n">
-        <v>0.001027956139296293</v>
+        <v>0.1001319289207458</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5121359825134277</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8575195670127869</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0255865640938282</v>
+        <v>0.1192898228764534</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5536389350891113</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4113258719444275</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02256330102682114</v>
+        <v>0.02025300823152065</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V33" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5224301218986511</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0707617849111557</v>
+        <v>3.136173108941875e-05</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5245449542999268</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4891217947006226</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01749134249985218</v>
+        <v>0.001254800241440535</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5720069408416748</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4033231139183044</v>
       </c>
       <c r="W35" t="n">
-        <v>0.04052569717168808</v>
+        <v>0.02845423296093941</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5143082141876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8980373740196228</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01613117381930351</v>
+        <v>0.1472480744123459</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143427848815918</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.5164226293563843</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08164259046316147</v>
+        <v>4.32575325248763e-06</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5154509544372559</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.5155912637710571</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0004724988539237529</v>
+        <v>1.968670915175608e-08</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.510200023651123</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4918290674686432</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0254133827984333</v>
+        <v>0.0003374920343048871</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5115349292755127</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.8646272420883179</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0002688654931262136</v>
+        <v>0.1246741786599159</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5275828838348389</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.3972284197807312</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0240092147141695</v>
+        <v>0.01699228584766388</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109911918640137</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8856132626533508</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02267575077712536</v>
+        <v>0.2252661138772964</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.408499002456665</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8998949527740479</v>
       </c>
       <c r="W43" t="n">
-        <v>0.003148067276924849</v>
+        <v>0.2414699792861938</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895950317382812</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4946917295455933</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1749719232320786</v>
+        <v>0.011045316234231</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3827497959136963</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8741506934165955</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1601595729589462</v>
+        <v>0.241474837064743</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3856499195098877</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4988211095333099</v>
       </c>
       <c r="W46" t="n">
-        <v>0.003941825125366449</v>
+        <v>0.01280771847814322</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4084460735321045</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.3972722589969635</v>
       </c>
       <c r="W47" t="n">
-        <v>2.35329098359216e-05</v>
+        <v>0.0001248541375389323</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.5162177085876465</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1770568639039993</v>
+        <v>0.01563042402267456</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3877451419830322</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.516232967376709</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0002547903568483889</v>
+        <v>0.01650912128388882</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3827140331268311</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4935696125030518</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01479960232973099</v>
+        <v>0.01228895969688892</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3853330612182617</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4994455575942993</v>
       </c>
       <c r="W51" t="n">
-        <v>0.09747342020273209</v>
+        <v>0.01302166189998388</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3924651145935059</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.886832594871521</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01474797632545233</v>
+        <v>0.2443992048501968</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4346969127655029</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5078649520874023</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02373478002846241</v>
+        <v>0.005353562068194151</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878750801086426</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4962910711765289</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01331118028610945</v>
+        <v>0.01175402756780386</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3844199180603027</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.8714591264724731</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01410561986267567</v>
+        <v>0.2372071892023087</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3857171535491943</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4952094256877899</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0003216997720301151</v>
+        <v>0.0119885578751564</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863620758056641</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5092540979385376</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02396401762962341</v>
+        <v>0.01510244887322187</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.38543701171875</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4883546531200409</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0002161056327167898</v>
+        <v>0.01059204060584307</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4391679763793945</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4034093916416168</v>
       </c>
       <c r="W59" t="n">
-        <v>0.00783793069422245</v>
+        <v>0.001278676325455308</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3881559371948242</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8679972290992737</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01349190715700388</v>
+        <v>0.2302476614713669</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3868780136108398</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8813713192939758</v>
       </c>
       <c r="W61" t="n">
-        <v>0.08744889497756958</v>
+        <v>0.2445236295461655</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8713829517364502</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.5032197237014771</v>
       </c>
       <c r="W62" t="n">
-        <v>0.164151519536972</v>
+        <v>0.135544165968895</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8790791034698486</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.507892906665802</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1335372030735016</v>
+        <v>0.1377791911363602</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9106390476226807</v>
       </c>
       <c r="V64" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4098265469074249</v>
       </c>
       <c r="W64" t="n">
-        <v>0.001262861769646406</v>
+        <v>0.2508131861686707</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8579719066619873</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.3972651064395905</v>
       </c>
       <c r="W65" t="n">
-        <v>0.008085678331553936</v>
+        <v>0.212250754237175</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8853330612182617</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.5160845518112183</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1380207687616348</v>
+        <v>0.1363444626331329</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8596880435943604</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8979383111000061</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2391103506088257</v>
+        <v>0.001463082968257368</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9237408638000488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5168992877006531</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1801897138357162</v>
+        <v>0.1655200719833374</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8601500988006592</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4955917298793793</v>
       </c>
       <c r="W69" t="n">
-        <v>0.002785819815471768</v>
+        <v>0.1329028010368347</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8598289489746094</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4979283809661865</v>
       </c>
       <c r="W70" t="n">
-        <v>0.002594425808638334</v>
+        <v>0.1309720277786255</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8605759143829346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4991695284843445</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1264773011207581</v>
+        <v>0.1306145787239075</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9218680858612061</v>
       </c>
       <c r="V72" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8661299347877502</v>
       </c>
       <c r="W72" t="n">
-        <v>0.01931107603013515</v>
+        <v>0.003106741467490792</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8634340763092041</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8742461800575256</v>
       </c>
       <c r="W73" t="n">
-        <v>0.07543627917766571</v>
+        <v>0.0001169015886262059</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8674938678741455</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.5163345336914062</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1089824959635735</v>
+        <v>0.1233128756284714</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8587491512298584</v>
       </c>
       <c r="V75" t="n">
-        <v>0.350454181432724</v>
+        <v>0.5513814091682434</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2583637535572052</v>
+        <v>0.09447492659091949</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9295041561126709</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8725360631942749</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1722044944763184</v>
+        <v>0.003245363710448146</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8605320453643799</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4024296402931213</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1018604710698128</v>
+        <v>0.2098578065633774</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8665120601654053</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.3972497582435608</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2142194807529449</v>
+        <v>0.2202071100473404</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8927500247955322</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4011116027832031</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2618143558502197</v>
+        <v>0.2417083382606506</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9193720817565918</v>
       </c>
       <c r="V80" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8809334635734558</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0005322073702700436</v>
+        <v>0.001477527315728366</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8628511428833008</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.8736550211906433</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2109048515558243</v>
+        <v>0.0001167237860499881</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5392858982086182</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4996019303798676</v>
       </c>
       <c r="W82" t="n">
-        <v>4.281732799427118e-06</v>
+        <v>0.001574817346408963</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5357880592346191</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4971897304058075</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0006245875847525895</v>
+        <v>0.001489831018261611</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5199570655822754</v>
       </c>
       <c r="V84" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8729942440986633</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02312294207513332</v>
+        <v>0.124635249376297</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5179939270019531</v>
       </c>
       <c r="V85" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8608110547065735</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0005486963200382888</v>
+        <v>0.117523580789566</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5204510688781738</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4989020824432373</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0229874774813652</v>
+        <v>0.0004643588035833091</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.515531063079834</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.4034737646579742</v>
       </c>
       <c r="W87" t="n">
-        <v>0.005331517197191715</v>
+        <v>0.01255683787167072</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5176911354064941</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4941591620445251</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01558169722557068</v>
+        <v>0.0005537537508644164</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5157589912414551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8649793863296509</v>
       </c>
       <c r="W89" t="n">
-        <v>3.918302354577463e-06</v>
+        <v>0.1219548806548119</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5638771057128906</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.5262818336486816</v>
       </c>
       <c r="W90" t="n">
-        <v>0.03348099440336227</v>
+        <v>0.001413404475897551</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5216150283813477</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4026979506015778</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0139143094420433</v>
+        <v>0.01414127182215452</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190351009368896</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4010659754276276</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0150745389983058</v>
+        <v>0.01391671411693096</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5160300731658936</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4184481501579285</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01847866736352444</v>
+        <v>0.009522231295704842</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5161871910095215</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4036895036697388</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02736271917819977</v>
+        <v>0.01265572942793369</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5659351348876953</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.3972114622592926</v>
       </c>
       <c r="W95" t="n">
-        <v>0.00825146958231926</v>
+        <v>0.02846767753362656</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5180850028991699</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8727470636367798</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08349642157554626</v>
+        <v>0.1257851719856262</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5193839073181152</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4871777296066284</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01569511368870735</v>
+        <v>0.001037237932905555</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.516585111618042</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4983623325824738</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0127611830830574</v>
+        <v>0.0003320696705486625</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5163099765777588</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8622166514396667</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02107895910739899</v>
+        <v>0.1196514293551445</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5164961814880371</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8798999786376953</v>
       </c>
       <c r="W100" t="n">
-        <v>1.119579110309132e-06</v>
+        <v>0.1320623159408569</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5191071033477783</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5163259506225586</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003339096438139677</v>
+        <v>7.734810424153693e-06</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3992648124694824</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.3994316458702087</v>
       </c>
       <c r="W102" t="n">
-        <v>0.168793648481369</v>
+        <v>2.783338359790832e-08</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4483058452606201</v>
       </c>
       <c r="V103" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8616337776184082</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1124925091862679</v>
+        <v>0.1708399802446365</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4074180126190186</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4976146817207336</v>
       </c>
       <c r="W104" t="n">
-        <v>1.421802153345197e-05</v>
+        <v>0.008135438896715641</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3957810401916504</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4952486157417297</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01401118841022253</v>
+        <v>0.009893798269331455</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3837540149688721</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4978455305099487</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0134839741513133</v>
+        <v>0.01301687397062778</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3882570266723633</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8605308532714844</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01318423543125391</v>
+        <v>0.2230425626039505</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3870830535888672</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.3975485265254974</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0002603740431368351</v>
+        <v>0.0001095261250156909</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4050898551940918</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.3992976248264313</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002949154702946544</v>
+        <v>3.354993168613873e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3943400382995605</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4972464144229889</v>
       </c>
       <c r="W110" t="n">
-        <v>0.08358490467071533</v>
+        <v>0.01058972254395485</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.397191047668457</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.3972555696964264</v>
       </c>
       <c r="W111" t="n">
-        <v>0.04453522339463234</v>
+        <v>4.163092093278919e-09</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4008119106292725</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4105271697044373</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01053337380290031</v>
+        <v>9.438626148039475e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4394669532775879</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4979090690612793</v>
       </c>
       <c r="W113" t="n">
-        <v>0.001309034763835371</v>
+        <v>0.003415480954572558</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909599781036377</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.397246927022934</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0002427864965284243</v>
+        <v>3.952572660637088e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3923289775848389</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8764269948005676</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001727299997583032</v>
+        <v>0.2343508899211884</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3862950801849365</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8741618394851685</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01664532348513603</v>
+        <v>0.238013967871666</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3853738307952881</v>
       </c>
       <c r="V117" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.516126275062561</v>
       </c>
       <c r="W117" t="n">
-        <v>0.1589644402265549</v>
+        <v>0.01709620095789433</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4007699489593506</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.499382346868515</v>
       </c>
       <c r="W118" t="n">
-        <v>0.00247633783146739</v>
+        <v>0.009724404662847519</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4487299919128418</v>
       </c>
       <c r="V119" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4885676205158234</v>
       </c>
       <c r="W119" t="n">
-        <v>0.007326434832066298</v>
+        <v>0.001587036647833884</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4030859470367432</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.5144104361534119</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01016689743846655</v>
+        <v>0.01239314209669828</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3998720645904541</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4045759439468384</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0005997264524921775</v>
+        <v>2.212648178101517e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8734807968139648</v>
       </c>
       <c r="V122" t="n">
-        <v>0.466268926858902</v>
+        <v>0.9044091701507568</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1658215075731277</v>
+        <v>0.0009565642685629427</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9794950485229492</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4983895719051361</v>
       </c>
       <c r="W123" t="n">
-        <v>0.07902969419956207</v>
+        <v>0.2314624786376953</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9272291660308838</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.5161178112030029</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1489338278770447</v>
+        <v>0.1690125465393066</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8761489391326904</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8706825971603394</v>
       </c>
       <c r="W125" t="n">
-        <v>0.04998711124062538</v>
+        <v>2.988089545397088e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8977329730987549</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.3975579738616943</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2720272839069366</v>
+        <v>0.2501750290393829</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8631350994110107</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4991665482521057</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1305373013019562</v>
+        <v>0.1324731111526489</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8644227981567383</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4944882988929749</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2125758677721024</v>
+        <v>0.1368515342473984</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8633098602294922</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8626749515533447</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1291886121034622</v>
+        <v>4.031090270473214e-07</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8597359657287598</v>
       </c>
       <c r="V130" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.497192919254303</v>
       </c>
       <c r="W130" t="n">
-        <v>0.005858242977410555</v>
+        <v>0.1314374655485153</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877918004989624</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8739568591117859</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2249724715948105</v>
+        <v>1.56906771735521e-05</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8692779541015625</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8914315700531006</v>
       </c>
       <c r="W132" t="n">
-        <v>0.07238277047872543</v>
+        <v>0.0004907827242277563</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V133" t="n">
-        <v>0.944080114364624</v>
+        <v>0.5409282445907593</v>
       </c>
       <c r="W133" t="n">
-        <v>0.004463338758796453</v>
+        <v>0.1131270453333855</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8604459762573242</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.873598575592041</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2580791413784027</v>
+        <v>0.0001729908690322191</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8821020126342773</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4047594964504242</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2288932502269745</v>
+        <v>0.2278558760881424</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710248470306396</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8727865815162659</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2398644834756851</v>
+        <v>3.10370842271368e-06</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.992156982421875</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8635096549987793</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2288708835840225</v>
+        <v>0.01655013486742973</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8618462085723877</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5081030130386353</v>
       </c>
       <c r="W138" t="n">
-        <v>0.006261980626732111</v>
+        <v>0.1251342445611954</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9156229496002197</v>
       </c>
       <c r="V139" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4045464992523193</v>
       </c>
       <c r="W139" t="n">
-        <v>0.0007263346924446523</v>
+        <v>0.2611991465091705</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8706269264221191</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8871834874153137</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1359557062387466</v>
+        <v>0.0002741197240538895</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.87027907371521</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4234151244163513</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2180162221193314</v>
+        <v>0.1996873915195465</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5346388816833496</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8602900505065918</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01173376385122538</v>
+        <v>0.1060486808419228</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5207669734954834</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8751314878463745</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02880853787064552</v>
+        <v>0.1255742162466049</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5735490322113037</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3972483277320862</v>
       </c>
       <c r="W144" t="n">
-        <v>0.006487661506980658</v>
+        <v>0.03108193911612034</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5191099643707275</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.3975410759449005</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0001780636521289125</v>
+        <v>0.01477899495512247</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5204861164093018</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4898337125778198</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01366330962628126</v>
+        <v>0.000939569843467325</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5392839908599854</v>
       </c>
       <c r="V147" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8653787970542908</v>
       </c>
       <c r="W147" t="n">
-        <v>0.05933736264705658</v>
+        <v>0.1063378229737282</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5188689231872559</v>
       </c>
       <c r="V148" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.5078034400939941</v>
       </c>
       <c r="W148" t="n">
-        <v>0.07003431767225266</v>
+        <v>0.0001224449224537238</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5620100498199463</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8800809979438782</v>
       </c>
       <c r="W149" t="n">
-        <v>0.06350326538085938</v>
+        <v>0.1011691316962242</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5212180614471436</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.513340950012207</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02122168429195881</v>
+        <v>6.204888632055372e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.514441967010498</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.3977857232093811</v>
       </c>
       <c r="W151" t="n">
-        <v>0.03336915373802185</v>
+        <v>0.01360867917537689</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5230338573455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.865923285484314</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01733777299523354</v>
+        <v>0.117573156952858</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164499282836914</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.5162813663482666</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01578101515769958</v>
+        <v>2.841312607415603e-08</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157740116119385</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.3992954194545746</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01934262923896313</v>
+        <v>0.01356726232916117</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5200760364532471</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4038017094135284</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0831342339515686</v>
+        <v>0.01351971924304962</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5208590030670166</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4019995033740997</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01779808662831783</v>
+        <v>0.0141275804489851</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520766019821167</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.5162643194198608</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0001819356548367068</v>
+        <v>2.026530637522228e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5157461166381836</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.5161520838737488</v>
       </c>
       <c r="W158" t="n">
-        <v>0.001437060767784715</v>
+        <v>1.648093927997252e-07</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5134131908416748</v>
       </c>
       <c r="V159" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8744513392448425</v>
       </c>
       <c r="W159" t="n">
-        <v>0.07218226790428162</v>
+        <v>0.1303485482931137</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5713281631469727</v>
       </c>
       <c r="V160" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4222626090049744</v>
       </c>
       <c r="W160" t="n">
-        <v>0.141784131526947</v>
+        <v>0.0222205389291048</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.522662878036499</v>
       </c>
       <c r="V161" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4970293641090393</v>
       </c>
       <c r="W161" t="n">
-        <v>0.000336307188263163</v>
+        <v>0.000657077063806355</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3940610885620117</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4113007783889771</v>
       </c>
       <c r="W162" t="n">
-        <v>0.007012052461504936</v>
+        <v>0.0002972069196403027</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3914721012115479</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8602253794670105</v>
       </c>
       <c r="W163" t="n">
-        <v>0.001655882690101862</v>
+        <v>0.2197296321392059</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3906350135803223</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4225854277610779</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01290323026478291</v>
+        <v>0.001020828960463405</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3924970626831055</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.3972607851028442</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0221679899841547</v>
+        <v>2.269305150548462e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.450124979019165</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4061900973320007</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1107679978013039</v>
+        <v>0.001930273836478591</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3920059204101562</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8768522143363953</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0001364719937555492</v>
+        <v>0.2350759357213974</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3911018371582031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.3972559571266174</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01276224665343761</v>
+        <v>3.787319292314351e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.39444899559021</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8999885320663452</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01218354608863592</v>
+        <v>0.2555702328681946</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3998000621795654</v>
       </c>
       <c r="V170" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8649343848228455</v>
       </c>
       <c r="W170" t="n">
-        <v>0.2963436841964722</v>
+        <v>0.2163499444723129</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923919200897217</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8972763419151306</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06886516511440277</v>
+        <v>0.2549082934856415</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3932938575744629</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.3975207209587097</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02068375982344151</v>
+        <v>1.786637403711211e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3941750526428223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8505105376243591</v>
       </c>
       <c r="W173" t="n">
-        <v>0.3048067092895508</v>
+        <v>0.2082420736551285</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4129297733306885</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.3992805182933807</v>
       </c>
       <c r="W174" t="n">
-        <v>0.00283973291516304</v>
+        <v>0.0001863021607277915</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3934879302978516</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4103970527648926</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001824289793148637</v>
+        <v>0.0002859184169210494</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4037501811981201</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01844881288707256</v>
+        <v>2.465189027134329e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4127500057220459</v>
       </c>
       <c r="V177" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3972594738006592</v>
       </c>
       <c r="W177" t="n">
-        <v>0.2844484746456146</v>
+        <v>0.0002399565855739638</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3900389671325684</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4234356880187988</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02160754986107349</v>
+        <v>0.001115340972319245</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3949189186096191</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8651537299156189</v>
       </c>
       <c r="W179" t="n">
-        <v>0.002860607579350471</v>
+        <v>0.2211207747459412</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3938121795654297</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.5149346590042114</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01444592885673046</v>
+        <v>0.01467065513134003</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.403033971786499</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4959128797054291</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01227387227118015</v>
+        <v>0.008626491762697697</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8819780349731445</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4913049042224884</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2564139068126678</v>
+        <v>0.1526255011558533</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.907789945602417</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4047167599201202</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06472276151180267</v>
+        <v>0.253082662820816</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5013493299484253</v>
       </c>
       <c r="W184" t="n">
-        <v>0.02916933223605156</v>
+        <v>0.1344862431287766</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8783891201019287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4101247191429138</v>
       </c>
       <c r="W185" t="n">
-        <v>0.132433757185936</v>
+        <v>0.2192715555429459</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8684408664703369</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8794357776641846</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1524030119180679</v>
+        <v>0.0001208880712511018</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8954370021820068</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4962860345840454</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05411528050899506</v>
+        <v>0.1593215018510818</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8704550266265869</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.399226188659668</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2178773432970047</v>
+        <v>0.2220566123723984</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8688759803771973</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.867580771446228</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1257061213254929</v>
+        <v>1.677566160651622e-06</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8591442108154297</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4228311777114868</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2075314968824387</v>
+        <v>0.1903690695762634</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9573700428009033</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4117357730865479</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3066344857215881</v>
+        <v>0.2977167665958405</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8688590526580811</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4219193756580353</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1356344074010849</v>
+        <v>0.199755072593689</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4233450293540955</v>
       </c>
       <c r="W193" t="n">
-        <v>0.05239928141236305</v>
+        <v>0.1997338384389877</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8677430152893066</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4990425109863281</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1091398894786835</v>
+        <v>0.1359400600194931</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9192900657653809</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4035810232162476</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1457986831665039</v>
+        <v>0.2659558057785034</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.86232590675354</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4024852812290192</v>
       </c>
       <c r="W196" t="n">
-        <v>0.04242994636297226</v>
+        <v>0.2114534080028534</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8719251155853271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4234032034873962</v>
       </c>
       <c r="W197" t="n">
-        <v>0.09692700952291489</v>
+        <v>0.2011719048023224</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.869563102722168</v>
       </c>
       <c r="V198" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.3977497220039368</v>
       </c>
       <c r="W198" t="n">
-        <v>0.005316434428095818</v>
+        <v>0.2226078659296036</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9221830368041992</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8635047078132629</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1525505483150482</v>
+        <v>0.003443146357312799</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8622620105743408</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8847871422767639</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1028196215629578</v>
+        <v>0.0005073815700598061</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8710739612579346</v>
       </c>
       <c r="V201" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.3992372155189514</v>
       </c>
       <c r="W201" t="n">
-        <v>0.005654908716678619</v>
+        <v>0.2226299196481705</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5169930458068848</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.516427755355835</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01564398966729641</v>
+        <v>3.195532940480916e-07</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514185905456543</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.498623788356781</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003935405984520912</v>
+        <v>0.0002421794924885035</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5703630447387695</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4038286209106445</v>
       </c>
       <c r="W204" t="n">
-        <v>0.001802372862584889</v>
+        <v>0.02773371338844299</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5174400806427002</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.3972446322441101</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02007013186812401</v>
+        <v>0.01444694586098194</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5218470096588135</v>
       </c>
       <c r="V206" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.879304826259613</v>
       </c>
       <c r="W206" t="n">
-        <v>0.06834521889686584</v>
+        <v>0.1277760863304138</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5113370418548584</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.8966319561004639</v>
       </c>
       <c r="W207" t="n">
-        <v>0.005963714327663183</v>
+        <v>0.1484521776437759</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5158228874206543</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4119803309440613</v>
       </c>
       <c r="W208" t="n">
-        <v>1.01042331834833e-07</v>
+        <v>0.01078327652066946</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5713140964508057</v>
       </c>
       <c r="V209" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8979111909866333</v>
       </c>
       <c r="W209" t="n">
-        <v>0.05238640308380127</v>
+        <v>0.106665663421154</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.507081151008606</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01352381519973278</v>
+        <v>0.0001640684058656916</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5200309753417969</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3992687463760376</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004811577033251524</v>
+        <v>0.01458351593464613</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8795513510704041</v>
       </c>
       <c r="W212" t="n">
-        <v>0.008105757646262646</v>
+        <v>0.130599319934845</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5195357799530029</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.4036664664745331</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01516119390726089</v>
+        <v>0.01342569757252932</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5233030319213867</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.489913135766983</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01442707888782024</v>
+        <v>0.001114885206334293</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5211880207061768</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4034186601638794</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01733780466020107</v>
+        <v>0.0138696227222681</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5218300819396973</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.403963565826416</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01473506540060043</v>
+        <v>0.01389251556247473</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5191562175750732</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5162543654441833</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0133567713201046</v>
+        <v>8.420745871262625e-06</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5160369873046875</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8672826290130615</v>
       </c>
       <c r="W218" t="n">
-        <v>0.00426920410245657</v>
+        <v>0.1233735010027885</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.519726037979126</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8979194760322571</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0285408478230238</v>
+        <v>0.1430302709341049</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5710220336914062</v>
       </c>
       <c r="V220" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4996217489242554</v>
       </c>
       <c r="W220" t="n">
-        <v>0.001558197545818985</v>
+        <v>0.005098000634461641</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5185480117797852</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8679447770118713</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0005212637479417026</v>
+        <v>0.1220780983567238</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3894450664520264</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8737999796867371</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00149440357927233</v>
+        <v>0.2345996797084808</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8599687218666077</v>
       </c>
       <c r="W223" t="n">
-        <v>0.001455382560379803</v>
+        <v>0.2218708842992783</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3900578022003174</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.502312183380127</v>
       </c>
       <c r="W224" t="n">
-        <v>0.07118938863277435</v>
+        <v>0.01260104589164257</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3894548416137695</v>
       </c>
       <c r="V225" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8702376484870911</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1817945539951324</v>
+        <v>0.2311521023511887</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4534618854522705</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.5091734528541565</v>
       </c>
       <c r="W226" t="n">
-        <v>0.002336256438866258</v>
+        <v>0.003103778697550297</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4036843478679657</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01397878024727106</v>
+        <v>5.370313010644168e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3967189788818359</v>
       </c>
       <c r="V228" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8804587125778198</v>
       </c>
       <c r="W228" t="n">
-        <v>0.02090661786496639</v>
+        <v>0.2340041249990463</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3932778835296631</v>
       </c>
       <c r="V229" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.5163636207580566</v>
       </c>
       <c r="W229" t="n">
-        <v>0.301558256149292</v>
+        <v>0.0151500990614295</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3935949802398682</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8643774390220642</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01446957886219025</v>
+        <v>0.2216361165046692</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3923270702362061</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8974900245666504</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01193698402494192</v>
+        <v>0.2551895976066589</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4489080905914307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8989605903625488</v>
       </c>
       <c r="W232" t="n">
-        <v>0.009628330357372761</v>
+        <v>0.2025472521781921</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4101758003234863</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.5157088041305542</v>
       </c>
       <c r="W233" t="n">
-        <v>0.07415229082107544</v>
+        <v>0.01113721448928118</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3969268798828125</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4115230143070221</v>
       </c>
       <c r="W234" t="n">
-        <v>0.05960272252559662</v>
+        <v>0.0002130471402779222</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3950700759887695</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4233549237251282</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01426445133984089</v>
+        <v>0.0008000326342880726</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972718715667725</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4046041667461395</v>
       </c>
       <c r="W236" t="n">
-        <v>0.166979655623436</v>
+        <v>5.376255285227671e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3937051296234131</v>
       </c>
       <c r="V237" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8626406788825989</v>
       </c>
       <c r="W237" t="n">
-        <v>0.152166485786438</v>
+        <v>0.2199005484580994</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3919439315795898</v>
       </c>
       <c r="V238" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.3972492218017578</v>
       </c>
       <c r="W238" t="n">
-        <v>0.3131937980651855</v>
+        <v>2.814610343193635e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043810367584229</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4227117896080017</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01027688756585121</v>
+        <v>0.0003360164992045611</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.3975383639335632</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1763549000024796</v>
+        <v>5.788705311715603e-05</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3937091827392578</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.3972365856170654</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01854610815644264</v>
+        <v>1.244257146026939e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8741559982299805</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.5153712630271912</v>
       </c>
       <c r="W242" t="n">
-        <v>0.115521527826786</v>
+        <v>0.1287264823913574</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8969101905822754</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5257501006126404</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05046624317765236</v>
+        <v>0.1377598196268082</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8844399452209473</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4969377815723419</v>
       </c>
       <c r="W244" t="n">
-        <v>0.005530741065740585</v>
+        <v>0.1501579284667969</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.884005069732666</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5159040689468384</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2260601371526718</v>
+        <v>0.1354983448982239</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632850646972656</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8601329326629639</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2631587386131287</v>
+        <v>9.93593675957527e-06</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8853427171707153</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1408609598875046</v>
+        <v>1.563642035762314e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8745551109313965</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4847263395786285</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1666778028011322</v>
+        <v>0.151966467499733</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8725440502166748</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8588903546333313</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2722369134426117</v>
+        <v>0.0001864234072854742</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8593778610229492</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8860161900520325</v>
       </c>
       <c r="W250" t="n">
-        <v>0.04183929786086082</v>
+        <v>0.0007096005720086396</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9177348613739014</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8638004660606384</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1936921924352646</v>
+        <v>0.002908919006586075</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8791618347167969</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4244239926338196</v>
       </c>
       <c r="W252" t="n">
-        <v>0.005067456047981977</v>
+        <v>0.2067864984273911</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753988742828369</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4932399392127991</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2386012673377991</v>
+        <v>0.146045446395874</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8689060211181641</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8675122857093811</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2684624195098877</v>
+        <v>1.942498329299269e-06</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9299039840698242</v>
       </c>
       <c r="V255" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8610324859619141</v>
       </c>
       <c r="W255" t="n">
-        <v>0.07559096068143845</v>
+        <v>0.004743283148854971</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8701260089874268</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4046036601066589</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1540600508451462</v>
+        <v>0.2167110592126846</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.874377965927124</v>
       </c>
       <c r="V257" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4132602512836456</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2490747272968292</v>
+        <v>0.2126295417547226</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8652691841125488</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5163501501083374</v>
       </c>
       <c r="W258" t="n">
-        <v>0.04422076046466827</v>
+        <v>0.1217444911599159</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9306130409240723</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3992383778095245</v>
       </c>
       <c r="W259" t="n">
-        <v>0.05766605585813522</v>
+        <v>0.2823590636253357</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8682229518890381</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8703593611717224</v>
       </c>
       <c r="W260" t="n">
-        <v>0.09461066126823425</v>
+        <v>4.564244591165334e-06</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8705630302429199</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.866601824760437</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1110223010182381</v>
+        <v>1.569114829180762e-05</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5221869945526123</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5164115428924561</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02937956713140011</v>
+        <v>3.335584187880158e-05</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5225579738616943</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.863789439201355</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0001412005076417699</v>
+        <v>0.1164389103651047</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5496118068695068</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4987764954566956</v>
       </c>
       <c r="W264" t="n">
-        <v>6.758141535101458e-05</v>
+        <v>0.002584228990599513</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4305411577224731</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0678156390786171</v>
+        <v>0.008640763349831104</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.52093505859375</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.8719196915626526</v>
       </c>
       <c r="W266" t="n">
-        <v>0.001604501507245004</v>
+        <v>0.1231902092695236</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5218210220336914</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8812820911407471</v>
       </c>
       <c r="W267" t="n">
-        <v>0.005379070062190294</v>
+        <v>0.1292122602462769</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5265488624572754</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8859099149703979</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02433265745639801</v>
+        <v>0.1291403621435165</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5814778804779053</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4942668676376343</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01361559145152569</v>
+        <v>0.00760576082393527</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5208179950714111</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4035001397132874</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02125070430338383</v>
+        <v>0.0137634789571166</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5226747989654541</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.3972709476947784</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02011935040354729</v>
+        <v>0.01572612673044205</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5375781059265137</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4235393106937408</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01800735481083393</v>
+        <v>0.0130048468708992</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3972519040107727</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0004068614798597991</v>
+        <v>0.01542689558118582</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5415711402893066</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8618550896644592</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07535149902105331</v>
+        <v>0.1025818064808846</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V275" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4955306351184845</v>
       </c>
       <c r="W275" t="n">
-        <v>0.08119188994169235</v>
+        <v>0.0008948112372308969</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5217421054840088</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8683369755744934</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0003080796159338206</v>
+        <v>0.1201280057430267</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5241010189056396</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4117488265037537</v>
       </c>
       <c r="W277" t="n">
-        <v>0.000100176315754652</v>
+        <v>0.01262301485985518</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5220959186553955</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4996702671051025</v>
       </c>
       <c r="W278" t="n">
-        <v>0.000320699909934774</v>
+        <v>0.0005029098247177899</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5272500514984131</v>
       </c>
       <c r="V279" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4011337459087372</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01674377731978893</v>
+        <v>0.01590532250702381</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5760009288787842</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8732316493988037</v>
       </c>
       <c r="W280" t="n">
-        <v>0.005899135489016771</v>
+        <v>0.08834610134363174</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5176501274108887</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8913859724998474</v>
       </c>
       <c r="W281" t="n">
-        <v>1.550940396555234e-05</v>
+        <v>0.1396784782409668</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4199678897857666</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.5068678855895996</v>
       </c>
       <c r="W282" t="n">
-        <v>0.004787333775311708</v>
+        <v>0.007551609072834253</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4006869792938232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8838947415351868</v>
       </c>
       <c r="W283" t="n">
-        <v>0.002328843809664249</v>
+        <v>0.2334897369146347</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3958210945129395</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8980509638786316</v>
       </c>
       <c r="W284" t="n">
-        <v>6.033773752278648e-05</v>
+        <v>0.2522348463535309</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.400108814239502</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4892408847808838</v>
       </c>
       <c r="W285" t="n">
-        <v>1.064170191966696e-05</v>
+        <v>0.007944526150822639</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4396119117736816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.3972731828689575</v>
       </c>
       <c r="W286" t="n">
-        <v>0.00341594428755343</v>
+        <v>0.001792568014934659</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4000639915466309</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4124260544776917</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01961177960038185</v>
+        <v>0.000152820604853332</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3995819091796875</v>
       </c>
       <c r="V288" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4034597277641296</v>
       </c>
       <c r="W288" t="n">
-        <v>0.3045635223388672</v>
+        <v>1.503747716924408e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052491188049316</v>
       </c>
       <c r="V289" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8603754639625549</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06315473467111588</v>
+        <v>0.2071399837732315</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3960039615631104</v>
       </c>
       <c r="V290" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4970998167991638</v>
       </c>
       <c r="W290" t="n">
-        <v>0.07630965113639832</v>
+        <v>0.01022037211805582</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3953230381011963</v>
       </c>
       <c r="V291" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5162451267242432</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06699997931718826</v>
+        <v>0.01462215185165405</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4610579013824463</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8734861016273499</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0002729564730543643</v>
+        <v>0.1700970232486725</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3997929096221924</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4972803294658661</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002577981678768992</v>
+        <v>0.009503796696662903</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4024639129638672</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8703169226646423</v>
       </c>
       <c r="W294" t="n">
-        <v>0.002713637193664908</v>
+        <v>0.2188864350318909</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3928940296173096</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4035881459712982</v>
       </c>
       <c r="W295" t="n">
-        <v>0.003324460703879595</v>
+        <v>0.0001143641275120899</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3961861133575439</v>
       </c>
       <c r="V296" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.501035213470459</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1500004678964615</v>
+        <v>0.01099333353340626</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4044020175933838</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8718711137771606</v>
       </c>
       <c r="W297" t="n">
-        <v>0.07738450914621353</v>
+        <v>0.2185273617506027</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4242048263549805</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4011088311672211</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0007001422345638275</v>
+        <v>0.0005334250163286924</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963778018951416</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4031175971031189</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002078435616567731</v>
+        <v>4.542484020930715e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4069781303405762</v>
       </c>
       <c r="V300" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8845006823539734</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0006654641474597156</v>
+        <v>0.2280277907848358</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3979349136352539</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4096289575099945</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01802896521985531</v>
+        <v>0.0001367506629321724</v>
       </c>
     </row>
     <row r="302" spans="1:23">
